--- a/DifferentialGeneExpression-Output/Amy_DESeq2_DEGenes_122018_updateDesign/SummaryStatistics.xlsx
+++ b/DifferentialGeneExpression-Output/Amy_DESeq2_DEGenes_122018_updateDesign/SummaryStatistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amy.lyden/Documents/Informatics/AIH/github/AIH-Project/DifferentialGeneExpression-Output/Amy_DESeq2_DEGenes_122018_updateDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456ACFB-9E43-E844-8A5A-823A6FF1A917}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3208EF-8A68-DE41-ACC5-A1CD19EA4AA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{29B60538-33CC-1343-AF89-BF5E6CBC979D}"/>
+    <workbookView xWindow="5180" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{29B60538-33CC-1343-AF89-BF5E6CBC979D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>complete</t>
   </si>
@@ -44,9 +44,6 @@
     <t>partial</t>
   </si>
   <si>
-    <t>Response groups</t>
-  </si>
-  <si>
     <t>AIHelevatedALT</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>control</t>
   </si>
   <si>
-    <t>AIH vs Healthy</t>
-  </si>
-  <si>
     <t>ALT groups</t>
   </si>
   <si>
@@ -75,14 +69,55 @@
   </si>
   <si>
     <t>AIHnocirrhosis</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>on tx groups</t>
+  </si>
+  <si>
+    <t>fibrosis groups</t>
+  </si>
+  <si>
+    <t>response groups</t>
+  </si>
+  <si>
+    <t>case vs controls</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,13 +145,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,6 +169,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B59CEB79-4440-4043-927F-4E6B4993E1A3}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{84DEFC24-8B65-FF49-8BFB-3EDE152625D3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{86A43586-D270-4444-A102-D9AE81669079}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F87503C9-7F70-784A-8265-2EC688F43462}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{8F9F11B9-10A6-784B-807B-B839C5FE98EC}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{5E350F32-7B45-3E4E-BBC2-9B7BA5FD67AD}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{8C63FC45-084A-EC49-9B0C-31A73050089D}" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,45 +482,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E22CAE-D747-1B49-ADBE-7DAEF8CD715C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>67</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -479,9 +555,6 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5">
         <v>31</v>
       </c>
@@ -495,54 +568,85 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
-      </c>
-      <c r="D8">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>25</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>